--- a/dataanalysis/data/predictions/1200/08211133_1135.xlsx
+++ b/dataanalysis/data/predictions/1200/08211133_1135.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="177">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-21</t>
   </si>
   <si>
@@ -542,9 +545,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -902,13 +902,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH88"/>
+  <dimension ref="A1:AI88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1011,19 +1011,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>2.14</v>
@@ -1041,7 +1044,7 @@
         <v>67127.57000000001</v>
       </c>
       <c r="J2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -1082,8 +1085,23 @@
       <c r="W2">
         <v>0.02</v>
       </c>
+      <c r="X2">
+        <v>-3.67</v>
+      </c>
+      <c r="Y2">
+        <v>11.38</v>
+      </c>
+      <c r="Z2">
+        <v>-0.44</v>
+      </c>
       <c r="AC2" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1091,22 +1109,25 @@
       <c r="AG2">
         <v>3.493998765945435</v>
       </c>
-      <c r="AH2" t="s">
-        <v>176</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300033</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-0.54</v>
@@ -1124,7 +1145,7 @@
         <v>348834.56</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K3">
         <v>4</v>
@@ -1165,8 +1186,23 @@
       <c r="W3">
         <v>0.06</v>
       </c>
+      <c r="X3">
+        <v>5.32</v>
+      </c>
+      <c r="Y3">
+        <v>401.99</v>
+      </c>
+      <c r="Z3">
+        <v>4.57</v>
+      </c>
       <c r="AC3" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1174,22 +1210,25 @@
       <c r="AG3">
         <v>11.65454006195068</v>
       </c>
-      <c r="AH3" t="s">
-        <v>176</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300047</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>3.17</v>
@@ -1207,7 +1246,7 @@
         <v>175881.59</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -1248,8 +1287,23 @@
       <c r="W4">
         <v>0.3</v>
       </c>
+      <c r="X4">
+        <v>0.85</v>
+      </c>
+      <c r="Y4">
+        <v>19.28</v>
+      </c>
+      <c r="Z4">
+        <v>0.36</v>
+      </c>
       <c r="AC4" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1257,22 +1311,25 @@
       <c r="AG4">
         <v>6.024026870727539</v>
       </c>
-      <c r="AH4" t="s">
-        <v>176</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300049</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-5.39</v>
@@ -1290,7 +1347,7 @@
         <v>145098.82</v>
       </c>
       <c r="J5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K5">
         <v>11</v>
@@ -1331,8 +1388,23 @@
       <c r="W5">
         <v>-0.57</v>
       </c>
+      <c r="X5">
+        <v>-5.41</v>
+      </c>
+      <c r="Y5">
+        <v>68.8</v>
+      </c>
+      <c r="Z5">
+        <v>1.99</v>
+      </c>
       <c r="AC5" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1340,22 +1412,25 @@
       <c r="AG5">
         <v>1.755897045135498</v>
       </c>
-      <c r="AH5" t="s">
-        <v>176</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300184</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>3.85</v>
@@ -1373,7 +1448,7 @@
         <v>190527.87</v>
       </c>
       <c r="J6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -1414,8 +1489,23 @@
       <c r="W6">
         <v>0.48</v>
       </c>
+      <c r="X6">
+        <v>6.76</v>
+      </c>
+      <c r="Y6">
+        <v>13</v>
+      </c>
+      <c r="Z6">
+        <v>7</v>
+      </c>
       <c r="AC6" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1423,22 +1513,25 @@
       <c r="AG6">
         <v>1.791001319885254</v>
       </c>
-      <c r="AH6" t="s">
-        <v>176</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300199</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>1.75</v>
@@ -1456,7 +1549,7 @@
         <v>280834.79</v>
       </c>
       <c r="J7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K7">
         <v>18</v>
@@ -1497,8 +1590,23 @@
       <c r="W7">
         <v>0.04</v>
       </c>
+      <c r="X7">
+        <v>-5.44</v>
+      </c>
+      <c r="Y7">
+        <v>30.03</v>
+      </c>
+      <c r="Z7">
+        <v>1.08</v>
+      </c>
       <c r="AC7" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1506,22 +1614,25 @@
       <c r="AG7">
         <v>-0.1481138169765472</v>
       </c>
-      <c r="AH7" t="s">
-        <v>176</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300252</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-1.28</v>
@@ -1539,7 +1650,7 @@
         <v>50117.28</v>
       </c>
       <c r="J8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -1580,8 +1691,23 @@
       <c r="W8">
         <v>-0.13</v>
       </c>
+      <c r="X8">
+        <v>-2.73</v>
+      </c>
+      <c r="Y8">
+        <v>13.87</v>
+      </c>
+      <c r="Z8">
+        <v>-0.43</v>
+      </c>
       <c r="AC8" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1589,22 +1715,25 @@
       <c r="AG8">
         <v>96.55971527099609</v>
       </c>
-      <c r="AH8" t="s">
-        <v>176</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300290</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-0.5</v>
@@ -1622,7 +1751,7 @@
         <v>42735.55</v>
       </c>
       <c r="J9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1663,8 +1792,23 @@
       <c r="W9">
         <v>-0.27</v>
       </c>
+      <c r="X9">
+        <v>1.25</v>
+      </c>
+      <c r="Y9">
+        <v>26</v>
+      </c>
+      <c r="Z9">
+        <v>9.800000000000001</v>
+      </c>
       <c r="AC9" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1672,22 +1816,25 @@
       <c r="AG9">
         <v>0.6847019791603088</v>
       </c>
-      <c r="AH9" t="s">
-        <v>176</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300300</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>2.71</v>
@@ -1705,7 +1852,7 @@
         <v>31161.34</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1746,8 +1893,23 @@
       <c r="W10">
         <v>-0.92</v>
       </c>
+      <c r="X10">
+        <v>-1.86</v>
+      </c>
+      <c r="Y10">
+        <v>5.93</v>
+      </c>
+      <c r="Z10">
+        <v>-2.31</v>
+      </c>
       <c r="AC10" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1755,22 +1917,25 @@
       <c r="AG10">
         <v>4.589900493621826</v>
       </c>
-      <c r="AH10" t="s">
-        <v>176</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300323</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>8.800000000000001</v>
@@ -1788,7 +1953,7 @@
         <v>165954.6</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1829,8 +1994,23 @@
       <c r="W11">
         <v>-0.27</v>
       </c>
+      <c r="X11">
+        <v>0.83</v>
+      </c>
+      <c r="Y11">
+        <v>10</v>
+      </c>
+      <c r="Z11">
+        <v>2.35</v>
+      </c>
       <c r="AC11" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1838,22 +2018,25 @@
       <c r="AG11">
         <v>8.687705039978027</v>
       </c>
-      <c r="AH11" t="s">
-        <v>176</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300324</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>0.52</v>
@@ -1871,7 +2054,7 @@
         <v>69905.78</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1912,8 +2095,23 @@
       <c r="W12">
         <v>-0.4</v>
       </c>
+      <c r="X12">
+        <v>7.99</v>
+      </c>
+      <c r="Y12">
+        <v>6.8</v>
+      </c>
+      <c r="Z12">
+        <v>17.85</v>
+      </c>
       <c r="AC12" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1921,22 +2119,25 @@
       <c r="AG12">
         <v>0.3527492880821228</v>
       </c>
-      <c r="AH12" t="s">
-        <v>176</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300328</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-1.92</v>
@@ -1954,7 +2155,7 @@
         <v>208232.29</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1995,8 +2196,23 @@
       <c r="W13">
         <v>0.25</v>
       </c>
+      <c r="X13">
+        <v>2.67</v>
+      </c>
+      <c r="Y13">
+        <v>18.26</v>
+      </c>
+      <c r="Z13">
+        <v>1.95</v>
+      </c>
       <c r="AC13" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2004,22 +2220,25 @@
       <c r="AG13">
         <v>52.16121292114258</v>
       </c>
-      <c r="AH13" t="s">
-        <v>176</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300409</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-3.63</v>
@@ -2037,7 +2256,7 @@
         <v>101649.11</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K14">
         <v>4</v>
@@ -2078,8 +2297,23 @@
       <c r="W14">
         <v>-0.48</v>
       </c>
+      <c r="X14">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="Y14">
+        <v>22.85</v>
+      </c>
+      <c r="Z14">
+        <v>9.02</v>
+      </c>
       <c r="AC14" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2087,22 +2321,25 @@
       <c r="AG14">
         <v>1.144541621208191</v>
       </c>
-      <c r="AH14" t="s">
-        <v>176</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300499</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-0.89</v>
@@ -2120,7 +2357,7 @@
         <v>191587.11</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K15">
         <v>7</v>
@@ -2161,8 +2398,23 @@
       <c r="W15">
         <v>-1.91</v>
       </c>
+      <c r="X15">
+        <v>-0.77</v>
+      </c>
+      <c r="Y15">
+        <v>32.75</v>
+      </c>
+      <c r="Z15">
+        <v>1.8</v>
+      </c>
       <c r="AC15" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>1</v>
@@ -2170,22 +2422,25 @@
       <c r="AG15">
         <v>19.97230911254883</v>
       </c>
-      <c r="AH15" t="s">
-        <v>176</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300539</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-3</v>
@@ -2203,7 +2458,7 @@
         <v>38853.91</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K16">
         <v>11</v>
@@ -2244,8 +2499,23 @@
       <c r="W16">
         <v>-0.55</v>
       </c>
+      <c r="X16">
+        <v>1.81</v>
+      </c>
+      <c r="Y16">
+        <v>34.23</v>
+      </c>
+      <c r="Z16">
+        <v>7.91</v>
+      </c>
       <c r="AC16" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2253,22 +2523,25 @@
       <c r="AG16">
         <v>2.288990259170532</v>
       </c>
-      <c r="AH16" t="s">
-        <v>176</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300547</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-4.68</v>
@@ -2286,7 +2559,7 @@
         <v>133280.63</v>
       </c>
       <c r="J17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K17">
         <v>5</v>
@@ -2327,8 +2600,23 @@
       <c r="W17">
         <v>-1.9</v>
       </c>
+      <c r="X17">
+        <v>1.42</v>
+      </c>
+      <c r="Y17">
+        <v>51</v>
+      </c>
+      <c r="Z17">
+        <v>3.49</v>
+      </c>
       <c r="AC17" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2336,22 +2624,25 @@
       <c r="AG17">
         <v>-1.675638198852539</v>
       </c>
-      <c r="AH17" t="s">
-        <v>176</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300579</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>2.22</v>
@@ -2369,7 +2660,7 @@
         <v>75525.48</v>
       </c>
       <c r="J18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K18">
         <v>7</v>
@@ -2410,8 +2701,23 @@
       <c r="W18">
         <v>0.48</v>
       </c>
+      <c r="X18">
+        <v>3.51</v>
+      </c>
+      <c r="Y18">
+        <v>41.18</v>
+      </c>
+      <c r="Z18">
+        <v>1.73</v>
+      </c>
       <c r="AC18" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2419,22 +2725,25 @@
       <c r="AG18">
         <v>6.211853504180908</v>
       </c>
-      <c r="AH18" t="s">
-        <v>176</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300602</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-1.22</v>
@@ -2452,7 +2761,7 @@
         <v>156037.27</v>
       </c>
       <c r="J19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19">
         <v>4</v>
@@ -2493,8 +2802,23 @@
       <c r="W19">
         <v>-0.58</v>
       </c>
+      <c r="X19">
+        <v>-2.29</v>
+      </c>
+      <c r="Y19">
+        <v>33.6</v>
+      </c>
+      <c r="Z19">
+        <v>-1.35</v>
+      </c>
       <c r="AC19" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2502,22 +2826,25 @@
       <c r="AG19">
         <v>2.732446670532227</v>
       </c>
-      <c r="AH19" t="s">
-        <v>176</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300620</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-5.48</v>
@@ -2535,7 +2862,7 @@
         <v>180695.72</v>
       </c>
       <c r="J20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20">
         <v>8</v>
@@ -2576,8 +2903,23 @@
       <c r="W20">
         <v>-1.39</v>
       </c>
+      <c r="X20">
+        <v>1.86</v>
+      </c>
+      <c r="Y20">
+        <v>89.38</v>
+      </c>
+      <c r="Z20">
+        <v>1.8</v>
+      </c>
       <c r="AC20" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2585,22 +2927,25 @@
       <c r="AG20">
         <v>4.509152412414551</v>
       </c>
-      <c r="AH20" t="s">
-        <v>176</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300637</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>2.62</v>
@@ -2618,7 +2963,7 @@
         <v>43511.01</v>
       </c>
       <c r="J21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K21">
         <v>7</v>
@@ -2659,8 +3004,23 @@
       <c r="W21">
         <v>0.86</v>
       </c>
+      <c r="X21">
+        <v>0.99</v>
+      </c>
+      <c r="Y21">
+        <v>16.45</v>
+      </c>
+      <c r="Z21">
+        <v>2.36</v>
+      </c>
       <c r="AC21" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2668,22 +3028,25 @@
       <c r="AG21">
         <v>0.2514748871326447</v>
       </c>
-      <c r="AH21" t="s">
-        <v>176</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300642</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-2.3</v>
@@ -2701,7 +3064,7 @@
         <v>43533.75</v>
       </c>
       <c r="J22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -2742,8 +3105,23 @@
       <c r="W22">
         <v>-0.14</v>
       </c>
+      <c r="X22">
+        <v>7.67</v>
+      </c>
+      <c r="Y22">
+        <v>26.89</v>
+      </c>
+      <c r="Z22">
+        <v>10.93</v>
+      </c>
       <c r="AC22" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2751,22 +3129,25 @@
       <c r="AG22">
         <v>2.92618203163147</v>
       </c>
-      <c r="AH22" t="s">
-        <v>176</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300665</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>7.39</v>
@@ -2784,7 +3165,7 @@
         <v>30415.16</v>
       </c>
       <c r="J23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -2825,8 +3206,23 @@
       <c r="W23">
         <v>0.31</v>
       </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>-100</v>
+      </c>
       <c r="AC23" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2834,22 +3230,25 @@
       <c r="AG23">
         <v>3.042705297470093</v>
       </c>
-      <c r="AH23" t="s">
-        <v>176</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300671</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>2.7</v>
@@ -2867,7 +3266,7 @@
         <v>82635.89999999999</v>
       </c>
       <c r="J24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K24">
         <v>8</v>
@@ -2908,8 +3307,23 @@
       <c r="W24">
         <v>-0.01</v>
       </c>
+      <c r="X24">
+        <v>0.8</v>
+      </c>
+      <c r="Y24">
+        <v>42.16</v>
+      </c>
+      <c r="Z24">
+        <v>-2.75</v>
+      </c>
       <c r="AC24" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2917,22 +3331,25 @@
       <c r="AG24">
         <v>4.445188522338867</v>
       </c>
-      <c r="AH24" t="s">
-        <v>176</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300684</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>-4.43</v>
@@ -2950,7 +3367,7 @@
         <v>91848.53</v>
       </c>
       <c r="J25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K25">
         <v>17</v>
@@ -2991,8 +3408,23 @@
       <c r="W25">
         <v>-1.06</v>
       </c>
+      <c r="X25">
+        <v>0.75</v>
+      </c>
+      <c r="Y25">
+        <v>36.48</v>
+      </c>
+      <c r="Z25">
+        <v>-1.75</v>
+      </c>
       <c r="AC25" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3000,22 +3432,25 @@
       <c r="AG25">
         <v>1.246279239654541</v>
       </c>
-      <c r="AH25" t="s">
-        <v>176</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300686</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>2.47</v>
@@ -3033,7 +3468,7 @@
         <v>95110.96000000001</v>
       </c>
       <c r="J26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -3074,8 +3509,23 @@
       <c r="W26">
         <v>-2.83</v>
       </c>
+      <c r="X26">
+        <v>-2.7</v>
+      </c>
+      <c r="Y26">
+        <v>13.45</v>
+      </c>
+      <c r="Z26">
+        <v>-1.82</v>
+      </c>
       <c r="AC26" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3083,22 +3533,25 @@
       <c r="AG26">
         <v>2.482064962387085</v>
       </c>
-      <c r="AH26" t="s">
-        <v>176</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300690</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-4.41</v>
@@ -3116,7 +3569,7 @@
         <v>42850.07</v>
       </c>
       <c r="J27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K27">
         <v>9</v>
@@ -3157,8 +3610,23 @@
       <c r="W27">
         <v>-1.3</v>
       </c>
+      <c r="X27">
+        <v>0.16</v>
+      </c>
+      <c r="Y27">
+        <v>37.51</v>
+      </c>
+      <c r="Z27">
+        <v>0.54</v>
+      </c>
       <c r="AC27" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3166,22 +3634,25 @@
       <c r="AG27">
         <v>3.317639350891113</v>
       </c>
-      <c r="AH27" t="s">
-        <v>176</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300701</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-3.91</v>
@@ -3199,7 +3670,7 @@
         <v>59424.97</v>
       </c>
       <c r="J28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -3240,8 +3711,23 @@
       <c r="W28">
         <v>-0.19</v>
       </c>
+      <c r="X28">
+        <v>-0.95</v>
+      </c>
+      <c r="Y28">
+        <v>13.16</v>
+      </c>
+      <c r="Z28">
+        <v>1.15</v>
+      </c>
       <c r="AC28" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3249,22 +3735,25 @@
       <c r="AG28">
         <v>-8.610043525695801</v>
       </c>
-      <c r="AH28" t="s">
-        <v>176</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300703</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-4.26</v>
@@ -3282,7 +3771,7 @@
         <v>48143.39</v>
       </c>
       <c r="J29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K29">
         <v>10</v>
@@ -3323,8 +3812,23 @@
       <c r="W29">
         <v>-0.73</v>
       </c>
+      <c r="X29">
+        <v>-2.63</v>
+      </c>
+      <c r="Y29">
+        <v>35.55</v>
+      </c>
+      <c r="Z29">
+        <v>-1.11</v>
+      </c>
       <c r="AC29" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3332,22 +3836,25 @@
       <c r="AG29">
         <v>4.333970546722412</v>
       </c>
-      <c r="AH29" t="s">
-        <v>176</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300724</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-0.1</v>
@@ -3365,7 +3872,7 @@
         <v>102934.27</v>
       </c>
       <c r="J30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -3406,8 +3913,23 @@
       <c r="W30">
         <v>-0.06</v>
       </c>
+      <c r="X30">
+        <v>1.82</v>
+      </c>
+      <c r="Y30">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="Z30">
+        <v>1.42</v>
+      </c>
       <c r="AC30" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3415,22 +3937,25 @@
       <c r="AG30">
         <v>8.590922355651855</v>
       </c>
-      <c r="AH30" t="s">
-        <v>176</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300727</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-3.91</v>
@@ -3448,7 +3973,7 @@
         <v>32974.04</v>
       </c>
       <c r="J31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K31">
         <v>5</v>
@@ -3489,8 +4014,23 @@
       <c r="W31">
         <v>-0.31</v>
       </c>
+      <c r="X31">
+        <v>-0.83</v>
+      </c>
+      <c r="Y31">
+        <v>38.7</v>
+      </c>
+      <c r="Z31">
+        <v>0.91</v>
+      </c>
       <c r="AC31" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3498,22 +4038,25 @@
       <c r="AG31">
         <v>1.177890777587891</v>
       </c>
-      <c r="AH31" t="s">
-        <v>176</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300730</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>15.42</v>
@@ -3531,7 +4074,7 @@
         <v>169194.02</v>
       </c>
       <c r="J32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K32">
         <v>4</v>
@@ -3572,8 +4115,23 @@
       <c r="W32">
         <v>3.86</v>
       </c>
+      <c r="X32">
+        <v>9.56</v>
+      </c>
+      <c r="Y32">
+        <v>25.66</v>
+      </c>
+      <c r="Z32">
+        <v>16.21</v>
+      </c>
       <c r="AC32" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3581,22 +4139,25 @@
       <c r="AG32">
         <v>-1.082933783531189</v>
       </c>
-      <c r="AH32" t="s">
-        <v>176</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300740</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>8.460000000000001</v>
@@ -3614,7 +4175,7 @@
         <v>68145.07000000001</v>
       </c>
       <c r="J33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -3655,8 +4216,23 @@
       <c r="W33">
         <v>0.54</v>
       </c>
+      <c r="X33">
+        <v>-4.82</v>
+      </c>
+      <c r="Y33">
+        <v>21.5</v>
+      </c>
+      <c r="Z33">
+        <v>-0.14</v>
+      </c>
       <c r="AC33" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3664,22 +4240,25 @@
       <c r="AG33">
         <v>0.3624138236045837</v>
       </c>
-      <c r="AH33" t="s">
-        <v>176</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300752</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>0.73</v>
@@ -3697,7 +4276,7 @@
         <v>51331.24</v>
       </c>
       <c r="J34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3738,8 +4317,23 @@
       <c r="W34">
         <v>-0.13</v>
       </c>
+      <c r="X34">
+        <v>2.66</v>
+      </c>
+      <c r="Y34">
+        <v>27.26</v>
+      </c>
+      <c r="Z34">
+        <v>3.97</v>
+      </c>
       <c r="AC34" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3747,22 +4341,25 @@
       <c r="AG34">
         <v>2.686256408691406</v>
       </c>
-      <c r="AH34" t="s">
-        <v>176</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300767</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-2.79</v>
@@ -3780,7 +4377,7 @@
         <v>39176</v>
       </c>
       <c r="J35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K35">
         <v>4</v>
@@ -3821,8 +4418,23 @@
       <c r="W35">
         <v>-0.95</v>
       </c>
+      <c r="X35">
+        <v>19.98</v>
+      </c>
+      <c r="Y35">
+        <v>25.34</v>
+      </c>
+      <c r="Z35">
+        <v>23.37</v>
+      </c>
       <c r="AC35" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3830,22 +4442,25 @@
       <c r="AG35">
         <v>2.230932474136353</v>
       </c>
-      <c r="AH35" t="s">
-        <v>176</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300803</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>4.56</v>
@@ -3863,7 +4478,7 @@
         <v>799205.58</v>
       </c>
       <c r="J36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K36">
         <v>8</v>
@@ -3904,8 +4519,23 @@
       <c r="W36">
         <v>0.49</v>
       </c>
+      <c r="X36">
+        <v>10.19</v>
+      </c>
+      <c r="Y36">
+        <v>142</v>
+      </c>
+      <c r="Z36">
+        <v>9.26</v>
+      </c>
       <c r="AC36" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3913,22 +4543,25 @@
       <c r="AG36">
         <v>3.077519655227661</v>
       </c>
-      <c r="AH36" t="s">
-        <v>176</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300806</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-3.56</v>
@@ -3946,7 +4579,7 @@
         <v>63186.95</v>
       </c>
       <c r="J37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K37">
         <v>5</v>
@@ -3987,8 +4620,23 @@
       <c r="W37">
         <v>0.29</v>
       </c>
+      <c r="X37">
+        <v>0.75</v>
+      </c>
+      <c r="Y37">
+        <v>26.93</v>
+      </c>
+      <c r="Z37">
+        <v>5.77</v>
+      </c>
       <c r="AC37" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3996,22 +4644,25 @@
       <c r="AG37">
         <v>3.540356636047363</v>
       </c>
-      <c r="AH37" t="s">
-        <v>176</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300811</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-3.38</v>
@@ -4029,7 +4680,7 @@
         <v>71118.2</v>
       </c>
       <c r="J38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K38">
         <v>4</v>
@@ -4070,8 +4721,23 @@
       <c r="W38">
         <v>-0.5</v>
       </c>
+      <c r="X38">
+        <v>0.1</v>
+      </c>
+      <c r="Y38">
+        <v>71.44</v>
+      </c>
+      <c r="Z38">
+        <v>3.12</v>
+      </c>
       <c r="AC38" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4079,22 +4745,25 @@
       <c r="AG38">
         <v>4.373379707336426</v>
       </c>
-      <c r="AH38" t="s">
-        <v>176</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300814</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-3.33</v>
@@ -4112,7 +4781,7 @@
         <v>38782.35</v>
       </c>
       <c r="J39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K39">
         <v>4</v>
@@ -4153,8 +4822,23 @@
       <c r="W39">
         <v>-0.14</v>
       </c>
+      <c r="X39">
+        <v>-0.42</v>
+      </c>
+      <c r="Y39">
+        <v>46.1</v>
+      </c>
+      <c r="Z39">
+        <v>0.48</v>
+      </c>
       <c r="AC39" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4162,22 +4846,25 @@
       <c r="AG39">
         <v>2.377446889877319</v>
       </c>
-      <c r="AH39" t="s">
-        <v>176</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300830</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>3.71</v>
@@ -4195,7 +4882,7 @@
         <v>56149.19</v>
       </c>
       <c r="J40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K40">
         <v>5</v>
@@ -4236,8 +4923,23 @@
       <c r="W40">
         <v>0.37</v>
       </c>
+      <c r="X40">
+        <v>0.5</v>
+      </c>
+      <c r="Y40">
+        <v>14.5</v>
+      </c>
+      <c r="Z40">
+        <v>3.79</v>
+      </c>
       <c r="AC40" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4245,22 +4947,25 @@
       <c r="AG40">
         <v>2.826581954956055</v>
       </c>
-      <c r="AH40" t="s">
-        <v>176</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300843</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-1.52</v>
@@ -4278,7 +4983,7 @@
         <v>37542.16</v>
       </c>
       <c r="J41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K41">
         <v>5</v>
@@ -4319,8 +5024,23 @@
       <c r="W41">
         <v>-0.34</v>
       </c>
+      <c r="X41">
+        <v>16</v>
+      </c>
+      <c r="Y41">
+        <v>58.17</v>
+      </c>
+      <c r="Z41">
+        <v>26.48</v>
+      </c>
       <c r="AC41" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4328,22 +5048,25 @@
       <c r="AG41">
         <v>0.5298991799354553</v>
       </c>
-      <c r="AH41" t="s">
-        <v>176</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300858</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>6.81</v>
@@ -4361,7 +5084,7 @@
         <v>58626.74</v>
       </c>
       <c r="J42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -4402,8 +5125,23 @@
       <c r="W42">
         <v>0.3</v>
       </c>
+      <c r="X42">
+        <v>-3.98</v>
+      </c>
+      <c r="Y42">
+        <v>21.2</v>
+      </c>
+      <c r="Z42">
+        <v>-4.12</v>
+      </c>
       <c r="AC42" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4411,22 +5149,25 @@
       <c r="AG42">
         <v>7.268044471740723</v>
       </c>
-      <c r="AH42" t="s">
-        <v>176</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300870</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>1.75</v>
@@ -4444,7 +5185,7 @@
         <v>125842</v>
       </c>
       <c r="J43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K43">
         <v>7</v>
@@ -4485,8 +5226,23 @@
       <c r="W43">
         <v>-0.28</v>
       </c>
+      <c r="X43">
+        <v>6.23</v>
+      </c>
+      <c r="Y43">
+        <v>275.82</v>
+      </c>
+      <c r="Z43">
+        <v>9.289999999999999</v>
+      </c>
       <c r="AC43" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4494,22 +5250,25 @@
       <c r="AG43">
         <v>5.940455913543701</v>
       </c>
-      <c r="AH43" t="s">
-        <v>176</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300902</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-1.52</v>
@@ -4527,7 +5286,7 @@
         <v>29882</v>
       </c>
       <c r="J44" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K44">
         <v>7</v>
@@ -4568,8 +5327,23 @@
       <c r="W44">
         <v>-0.91</v>
       </c>
+      <c r="X44">
+        <v>6.02</v>
+      </c>
+      <c r="Y44">
+        <v>33.02</v>
+      </c>
+      <c r="Z44">
+        <v>8.16</v>
+      </c>
       <c r="AC44" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4577,22 +5351,25 @@
       <c r="AG44">
         <v>2.301170110702515</v>
       </c>
-      <c r="AH44" t="s">
-        <v>176</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300913</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>0.97</v>
@@ -4610,7 +5387,7 @@
         <v>82998.88</v>
       </c>
       <c r="J45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K45">
         <v>3</v>
@@ -4651,8 +5428,23 @@
       <c r="W45">
         <v>0</v>
       </c>
+      <c r="X45">
+        <v>1.86</v>
+      </c>
+      <c r="Y45">
+        <v>59.11</v>
+      </c>
+      <c r="Z45">
+        <v>1.44</v>
+      </c>
       <c r="AC45" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4660,22 +5452,25 @@
       <c r="AG45">
         <v>1.619639873504639</v>
       </c>
-      <c r="AH45" t="s">
-        <v>176</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300951</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>3.3</v>
@@ -4693,7 +5488,7 @@
         <v>27025.08</v>
       </c>
       <c r="J46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K46">
         <v>4</v>
@@ -4734,8 +5529,23 @@
       <c r="W46">
         <v>0.15</v>
       </c>
+      <c r="X46">
+        <v>-0.57</v>
+      </c>
+      <c r="Y46">
+        <v>41.35</v>
+      </c>
+      <c r="Z46">
+        <v>-3.59</v>
+      </c>
       <c r="AC46" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4743,22 +5553,25 @@
       <c r="AG46">
         <v>-4.928056240081787</v>
       </c>
-      <c r="AH46" t="s">
-        <v>176</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300995</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-2.16</v>
@@ -4776,7 +5589,7 @@
         <v>18790.73</v>
       </c>
       <c r="J47" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -4817,8 +5630,23 @@
       <c r="W47">
         <v>0.03</v>
       </c>
+      <c r="X47">
+        <v>-1.31</v>
+      </c>
+      <c r="Y47">
+        <v>62.71</v>
+      </c>
+      <c r="Z47">
+        <v>0.95</v>
+      </c>
       <c r="AC47" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4826,22 +5654,25 @@
       <c r="AG47">
         <v>8.817521095275879</v>
       </c>
-      <c r="AH47" t="s">
-        <v>176</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>301007</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-0.02</v>
@@ -4859,7 +5690,7 @@
         <v>29687.51</v>
       </c>
       <c r="J48" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K48">
         <v>7</v>
@@ -4900,8 +5731,23 @@
       <c r="W48">
         <v>0.01</v>
       </c>
+      <c r="X48">
+        <v>-0.43</v>
+      </c>
+      <c r="Y48">
+        <v>47.26</v>
+      </c>
+      <c r="Z48">
+        <v>-1.09</v>
+      </c>
       <c r="AC48" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4909,22 +5755,25 @@
       <c r="AG48">
         <v>1.419175982475281</v>
       </c>
-      <c r="AH48" t="s">
-        <v>176</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>301009</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-2.44</v>
@@ -4942,7 +5791,7 @@
         <v>18587.25</v>
       </c>
       <c r="J49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -4983,8 +5832,23 @@
       <c r="W49">
         <v>-0.18</v>
       </c>
+      <c r="X49">
+        <v>-0.31</v>
+      </c>
+      <c r="Y49">
+        <v>16.46</v>
+      </c>
+      <c r="Z49">
+        <v>0.43</v>
+      </c>
       <c r="AC49" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4992,22 +5856,25 @@
       <c r="AG49">
         <v>-10.28873252868652</v>
       </c>
-      <c r="AH49" t="s">
-        <v>176</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>301018</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-6.41</v>
@@ -5025,7 +5892,7 @@
         <v>71165.32000000001</v>
       </c>
       <c r="J50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K50">
         <v>7</v>
@@ -5066,8 +5933,23 @@
       <c r="W50">
         <v>-0.44</v>
       </c>
+      <c r="X50">
+        <v>8.1</v>
+      </c>
+      <c r="Y50">
+        <v>69.8</v>
+      </c>
+      <c r="Z50">
+        <v>7.37</v>
+      </c>
       <c r="AC50" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>1</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5075,22 +5957,25 @@
       <c r="AG50">
         <v>4.851343631744385</v>
       </c>
-      <c r="AH50" t="s">
-        <v>176</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>301041</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-5.55</v>
@@ -5108,7 +5993,7 @@
         <v>58974.32</v>
       </c>
       <c r="J51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -5149,8 +6034,23 @@
       <c r="W51">
         <v>-0.28</v>
       </c>
+      <c r="X51">
+        <v>1.12</v>
+      </c>
+      <c r="Y51">
+        <v>32.28</v>
+      </c>
+      <c r="Z51">
+        <v>0.4</v>
+      </c>
       <c r="AC51" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5158,22 +6058,25 @@
       <c r="AG51">
         <v>-5.153336524963379</v>
       </c>
-      <c r="AH51" t="s">
-        <v>176</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>301052</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>12.02</v>
@@ -5191,7 +6094,7 @@
         <v>66697.87</v>
       </c>
       <c r="J52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -5232,8 +6135,23 @@
       <c r="W52">
         <v>1.96</v>
       </c>
+      <c r="X52">
+        <v>5.37</v>
+      </c>
+      <c r="Y52">
+        <v>79.66</v>
+      </c>
+      <c r="Z52">
+        <v>6.83</v>
+      </c>
       <c r="AC52" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5241,22 +6159,25 @@
       <c r="AG52">
         <v>2.925207614898682</v>
       </c>
-      <c r="AH52" t="s">
-        <v>176</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>301086</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>-7.07</v>
@@ -5274,7 +6195,7 @@
         <v>25319.66</v>
       </c>
       <c r="J53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K53">
         <v>4</v>
@@ -5315,8 +6236,23 @@
       <c r="W53">
         <v>0.02</v>
       </c>
+      <c r="X53">
+        <v>-1.65</v>
+      </c>
+      <c r="Y53">
+        <v>68.88</v>
+      </c>
+      <c r="Z53">
+        <v>2.32</v>
+      </c>
       <c r="AC53" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5324,22 +6260,25 @@
       <c r="AG53">
         <v>4.451023578643799</v>
       </c>
-      <c r="AH53" t="s">
-        <v>176</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>301095</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-1.7</v>
@@ -5357,7 +6296,7 @@
         <v>69793.3</v>
       </c>
       <c r="J54" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K54">
         <v>17</v>
@@ -5398,8 +6337,23 @@
       <c r="W54">
         <v>0.27</v>
       </c>
+      <c r="X54">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="Y54">
+        <v>95.55</v>
+      </c>
+      <c r="Z54">
+        <v>8.539999999999999</v>
+      </c>
       <c r="AC54" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5407,22 +6361,25 @@
       <c r="AG54">
         <v>0.7676851153373718</v>
       </c>
-      <c r="AH54" t="s">
-        <v>176</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>301123</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>-6.18</v>
@@ -5440,7 +6397,7 @@
         <v>54887.45</v>
       </c>
       <c r="J55" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K55">
         <v>13</v>
@@ -5481,8 +6438,23 @@
       <c r="W55">
         <v>-0.6</v>
       </c>
+      <c r="X55">
+        <v>0.14</v>
+      </c>
+      <c r="Y55">
+        <v>44.45</v>
+      </c>
+      <c r="Z55">
+        <v>2.44</v>
+      </c>
       <c r="AC55" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5490,22 +6462,25 @@
       <c r="AG55">
         <v>0.5956641435623169</v>
       </c>
-      <c r="AH55" t="s">
-        <v>176</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>301128</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-1.54</v>
@@ -5523,7 +6498,7 @@
         <v>100524.71</v>
       </c>
       <c r="J56" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K56">
         <v>7</v>
@@ -5564,8 +6539,23 @@
       <c r="W56">
         <v>-0.34</v>
       </c>
+      <c r="X56">
+        <v>5.66</v>
+      </c>
+      <c r="Y56">
+        <v>102.49</v>
+      </c>
+      <c r="Z56">
+        <v>7.6</v>
+      </c>
       <c r="AC56" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5573,22 +6563,25 @@
       <c r="AG56">
         <v>-3.024780511856079</v>
       </c>
-      <c r="AH56" t="s">
-        <v>176</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>301161</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-1.32</v>
@@ -5606,7 +6599,7 @@
         <v>15792.02</v>
       </c>
       <c r="J57" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K57">
         <v>14</v>
@@ -5647,8 +6640,23 @@
       <c r="W57">
         <v>0.25</v>
       </c>
+      <c r="X57">
+        <v>-3.61</v>
+      </c>
+      <c r="Y57">
+        <v>44.95</v>
+      </c>
+      <c r="Z57">
+        <v>0.22</v>
+      </c>
       <c r="AC57" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5656,22 +6664,25 @@
       <c r="AG57">
         <v>0.09939976781606674</v>
       </c>
-      <c r="AH57" t="s">
-        <v>176</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>301165</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>-2.37</v>
@@ -5689,7 +6700,7 @@
         <v>57487.03</v>
       </c>
       <c r="J58" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K58">
         <v>8</v>
@@ -5730,8 +6741,23 @@
       <c r="W58">
         <v>-0.31</v>
       </c>
+      <c r="X58">
+        <v>10.97</v>
+      </c>
+      <c r="Y58">
+        <v>94</v>
+      </c>
+      <c r="Z58">
+        <v>15.22</v>
+      </c>
       <c r="AC58" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5739,22 +6765,25 @@
       <c r="AG58">
         <v>-2.50346302986145</v>
       </c>
-      <c r="AH58" t="s">
-        <v>176</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>301183</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>-2.52</v>
@@ -5772,7 +6801,7 @@
         <v>44319.29</v>
       </c>
       <c r="J59" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -5813,8 +6842,23 @@
       <c r="W59">
         <v>-0.87</v>
       </c>
+      <c r="X59">
+        <v>-0.52</v>
+      </c>
+      <c r="Y59">
+        <v>76.73999999999999</v>
+      </c>
+      <c r="Z59">
+        <v>-0.85</v>
+      </c>
       <c r="AC59" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5822,22 +6866,25 @@
       <c r="AG59">
         <v>1.102794051170349</v>
       </c>
-      <c r="AH59" t="s">
-        <v>176</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301205</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>-0.54</v>
@@ -5855,7 +6902,7 @@
         <v>55819.42</v>
       </c>
       <c r="J60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -5896,8 +6943,23 @@
       <c r="W60">
         <v>-0.51</v>
       </c>
+      <c r="X60">
+        <v>1.37</v>
+      </c>
+      <c r="Y60">
+        <v>110.7</v>
+      </c>
+      <c r="Z60">
+        <v>1.3</v>
+      </c>
       <c r="AC60" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5905,22 +6967,25 @@
       <c r="AG60">
         <v>1.905069231987</v>
       </c>
-      <c r="AH60" t="s">
-        <v>176</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301217</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>-4.59</v>
@@ -5938,7 +7003,7 @@
         <v>102556.41</v>
       </c>
       <c r="J61" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K61">
         <v>34</v>
@@ -5979,8 +7044,23 @@
       <c r="W61">
         <v>-0.26</v>
       </c>
+      <c r="X61">
+        <v>10.93</v>
+      </c>
+      <c r="Y61">
+        <v>35.2</v>
+      </c>
+      <c r="Z61">
+        <v>12.89</v>
+      </c>
       <c r="AC61" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>1</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -5988,22 +7068,25 @@
       <c r="AG61">
         <v>-2.409931659698486</v>
       </c>
-      <c r="AH61" t="s">
-        <v>176</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301219</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>1.26</v>
@@ -6021,7 +7104,7 @@
         <v>61259.1</v>
       </c>
       <c r="J62" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -6062,8 +7145,23 @@
       <c r="W62">
         <v>-0.03</v>
       </c>
+      <c r="X62">
+        <v>3.06</v>
+      </c>
+      <c r="Y62">
+        <v>69.68000000000001</v>
+      </c>
+      <c r="Z62">
+        <v>5.64</v>
+      </c>
       <c r="AC62" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6071,22 +7169,25 @@
       <c r="AG62">
         <v>3.836567640304565</v>
       </c>
-      <c r="AH62" t="s">
-        <v>176</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301226</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>-5.33</v>
@@ -6104,7 +7205,7 @@
         <v>20922.99</v>
       </c>
       <c r="J63" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K63">
         <v>4</v>
@@ -6145,8 +7246,23 @@
       <c r="W63">
         <v>-0.66</v>
       </c>
+      <c r="X63">
+        <v>-0.87</v>
+      </c>
+      <c r="Y63">
+        <v>37.27</v>
+      </c>
+      <c r="Z63">
+        <v>0.92</v>
+      </c>
       <c r="AC63" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6154,22 +7270,25 @@
       <c r="AG63">
         <v>4.176375389099121</v>
       </c>
-      <c r="AH63" t="s">
-        <v>176</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301321</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>0.88</v>
@@ -6187,7 +7306,7 @@
         <v>26808.38</v>
       </c>
       <c r="J64" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -6228,8 +7347,23 @@
       <c r="W64">
         <v>0.71</v>
       </c>
+      <c r="X64">
+        <v>0.06</v>
+      </c>
+      <c r="Y64">
+        <v>19.59</v>
+      </c>
+      <c r="Z64">
+        <v>6.76</v>
+      </c>
       <c r="AC64" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6237,22 +7371,25 @@
       <c r="AG64">
         <v>-0.01520079467445612</v>
       </c>
-      <c r="AH64" t="s">
-        <v>176</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301357</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>-2.49</v>
@@ -6270,7 +7407,7 @@
         <v>72741.39999999999</v>
       </c>
       <c r="J65" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K65">
         <v>18</v>
@@ -6311,8 +7448,23 @@
       <c r="W65">
         <v>-1.46</v>
       </c>
+      <c r="X65">
+        <v>2.08</v>
+      </c>
+      <c r="Y65">
+        <v>167.25</v>
+      </c>
+      <c r="Z65">
+        <v>1.67</v>
+      </c>
       <c r="AC65" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6320,22 +7472,25 @@
       <c r="AG65">
         <v>-0.6688300371170044</v>
       </c>
-      <c r="AH65" t="s">
-        <v>176</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>301392</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>-0.9399999999999999</v>
@@ -6353,7 +7508,7 @@
         <v>40134.14</v>
       </c>
       <c r="J66" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K66">
         <v>3</v>
@@ -6394,8 +7549,23 @@
       <c r="W66">
         <v>-0.23</v>
       </c>
+      <c r="X66">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="Y66">
+        <v>199</v>
+      </c>
+      <c r="Z66">
+        <v>12.59</v>
+      </c>
       <c r="AC66" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6403,22 +7573,25 @@
       <c r="AG66">
         <v>0.4531700015068054</v>
       </c>
-      <c r="AH66" t="s">
-        <v>176</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>301398</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>-6.62</v>
@@ -6436,7 +7609,7 @@
         <v>32513.7</v>
       </c>
       <c r="J67" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K67">
         <v>5</v>
@@ -6477,8 +7650,23 @@
       <c r="W67">
         <v>-1.73</v>
       </c>
+      <c r="X67">
+        <v>0.02</v>
+      </c>
+      <c r="Y67">
+        <v>50.66</v>
+      </c>
+      <c r="Z67">
+        <v>-1</v>
+      </c>
       <c r="AC67" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6486,22 +7674,25 @@
       <c r="AG67">
         <v>11.59867191314697</v>
       </c>
-      <c r="AH67" t="s">
-        <v>176</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>301413</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>2.28</v>
@@ -6519,7 +7710,7 @@
         <v>49381.4</v>
       </c>
       <c r="J68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -6560,8 +7751,23 @@
       <c r="W68">
         <v>0.42</v>
       </c>
+      <c r="X68">
+        <v>1</v>
+      </c>
+      <c r="Y68">
+        <v>115.66</v>
+      </c>
+      <c r="Z68">
+        <v>1.01</v>
+      </c>
       <c r="AC68" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6569,22 +7775,25 @@
       <c r="AG68">
         <v>3.998808622360229</v>
       </c>
-      <c r="AH68" t="s">
-        <v>176</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>301489</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>-4.12</v>
@@ -6602,7 +7811,7 @@
         <v>109237.38</v>
       </c>
       <c r="J69" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K69">
         <v>16</v>
@@ -6643,8 +7852,23 @@
       <c r="W69">
         <v>-0.59</v>
       </c>
+      <c r="X69">
+        <v>14.52</v>
+      </c>
+      <c r="Y69">
+        <v>200</v>
+      </c>
+      <c r="Z69">
+        <v>18.96</v>
+      </c>
       <c r="AC69" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>1</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6652,22 +7876,25 @@
       <c r="AG69">
         <v>4.215187549591064</v>
       </c>
-      <c r="AH69" t="s">
-        <v>176</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>301526</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>-2.8</v>
@@ -6685,7 +7912,7 @@
         <v>64575.64</v>
       </c>
       <c r="J70" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K70">
         <v>11</v>
@@ -6726,8 +7953,23 @@
       <c r="W70">
         <v>-1.17</v>
       </c>
+      <c r="X70">
+        <v>4.01</v>
+      </c>
+      <c r="Y70">
+        <v>6.75</v>
+      </c>
+      <c r="Z70">
+        <v>8.17</v>
+      </c>
       <c r="AC70" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD70">
+        <v>1</v>
+      </c>
+      <c r="AE70">
+        <v>1</v>
       </c>
       <c r="AF70">
         <v>1</v>
@@ -6735,22 +7977,25 @@
       <c r="AG70">
         <v>3.810276508331299</v>
       </c>
-      <c r="AH70" t="s">
-        <v>176</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>301626</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>-0.9399999999999999</v>
@@ -6768,7 +8013,7 @@
         <v>32690.75</v>
       </c>
       <c r="J71" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K71">
         <v>5</v>
@@ -6809,8 +8054,23 @@
       <c r="W71">
         <v>0.38</v>
       </c>
+      <c r="X71">
+        <v>-3.44</v>
+      </c>
+      <c r="Y71">
+        <v>177.5</v>
+      </c>
+      <c r="Z71">
+        <v>4.41</v>
+      </c>
       <c r="AC71" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6818,22 +8078,25 @@
       <c r="AG71">
         <v>7.00888729095459</v>
       </c>
-      <c r="AH71" t="s">
-        <v>176</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>688035</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>-6.28</v>
@@ -6851,7 +8114,7 @@
         <v>45135.58</v>
       </c>
       <c r="J72" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K72">
         <v>4</v>
@@ -6892,8 +8155,23 @@
       <c r="W72">
         <v>-1.06</v>
       </c>
+      <c r="X72">
+        <v>3.57</v>
+      </c>
+      <c r="Y72">
+        <v>58.99</v>
+      </c>
+      <c r="Z72">
+        <v>2.15</v>
+      </c>
       <c r="AC72" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6901,22 +8179,25 @@
       <c r="AG72">
         <v>1.009337306022644</v>
       </c>
-      <c r="AH72" t="s">
-        <v>176</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>688098</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>-11.86</v>
@@ -6934,7 +8215,7 @@
         <v>48329.64</v>
       </c>
       <c r="J73" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -6975,8 +8256,23 @@
       <c r="W73">
         <v>-1</v>
       </c>
+      <c r="X73">
+        <v>-2</v>
+      </c>
+      <c r="Y73">
+        <v>13.6</v>
+      </c>
+      <c r="Z73">
+        <v>4.62</v>
+      </c>
       <c r="AC73" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -6984,22 +8280,25 @@
       <c r="AG73">
         <v>12.03445243835449</v>
       </c>
-      <c r="AH73" t="s">
-        <v>176</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>688110</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>-4.37</v>
@@ -7017,7 +8316,7 @@
         <v>257279.92</v>
       </c>
       <c r="J74" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K74">
         <v>18</v>
@@ -7058,8 +8357,23 @@
       <c r="W74">
         <v>-1.12</v>
       </c>
+      <c r="X74">
+        <v>6.65</v>
+      </c>
+      <c r="Y74">
+        <v>93.84</v>
+      </c>
+      <c r="Z74">
+        <v>-0.16</v>
+      </c>
       <c r="AC74" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7067,22 +8381,25 @@
       <c r="AG74">
         <v>24.74201583862305</v>
       </c>
-      <c r="AH74" t="s">
-        <v>176</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>688167</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>1.7</v>
@@ -7100,7 +8417,7 @@
         <v>62817.72</v>
       </c>
       <c r="J75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K75">
         <v>12</v>
@@ -7141,8 +8458,23 @@
       <c r="W75">
         <v>0.08</v>
       </c>
+      <c r="X75">
+        <v>7.22</v>
+      </c>
+      <c r="Y75">
+        <v>130</v>
+      </c>
+      <c r="Z75">
+        <v>3.75</v>
+      </c>
       <c r="AC75" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7150,22 +8482,25 @@
       <c r="AG75">
         <v>1.753631114959717</v>
       </c>
-      <c r="AH75" t="s">
-        <v>176</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>688195</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>-6.09</v>
@@ -7183,7 +8518,7 @@
         <v>67663.00999999999</v>
       </c>
       <c r="J76" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K76">
         <v>4</v>
@@ -7224,8 +8559,23 @@
       <c r="W76">
         <v>-0.26</v>
       </c>
+      <c r="X76">
+        <v>0.27</v>
+      </c>
+      <c r="Y76">
+        <v>63.89</v>
+      </c>
+      <c r="Z76">
+        <v>0.79</v>
+      </c>
       <c r="AC76" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7233,22 +8583,25 @@
       <c r="AG76">
         <v>-0.5772396326065063</v>
       </c>
-      <c r="AH76" t="s">
-        <v>176</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>688205</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>-1.79</v>
@@ -7266,7 +8619,7 @@
         <v>64323.94</v>
       </c>
       <c r="J77" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -7307,8 +8660,23 @@
       <c r="W77">
         <v>0.47</v>
       </c>
+      <c r="X77">
+        <v>4.88</v>
+      </c>
+      <c r="Y77">
+        <v>93.44</v>
+      </c>
+      <c r="Z77">
+        <v>6.61</v>
+      </c>
       <c r="AC77" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7316,22 +8684,25 @@
       <c r="AG77">
         <v>94.43157196044922</v>
       </c>
-      <c r="AH77" t="s">
-        <v>176</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>688372</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>8.220000000000001</v>
@@ -7349,7 +8720,7 @@
         <v>141219.75</v>
       </c>
       <c r="J78" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -7390,8 +8761,23 @@
       <c r="W78">
         <v>-2.23</v>
       </c>
+      <c r="X78">
+        <v>5.8</v>
+      </c>
+      <c r="Y78">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="Z78">
+        <v>6.65</v>
+      </c>
       <c r="AC78" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>1</v>
@@ -7399,22 +8785,25 @@
       <c r="AG78">
         <v>-4.627239227294922</v>
       </c>
-      <c r="AH78" t="s">
-        <v>176</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>688379</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>-5.68</v>
@@ -7432,7 +8821,7 @@
         <v>45145.71</v>
       </c>
       <c r="J79" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K79">
         <v>10</v>
@@ -7473,8 +8862,23 @@
       <c r="W79">
         <v>-0.31</v>
       </c>
+      <c r="X79">
+        <v>-3.4</v>
+      </c>
+      <c r="Y79">
+        <v>60.29</v>
+      </c>
+      <c r="Z79">
+        <v>-4</v>
+      </c>
       <c r="AC79" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7482,22 +8886,25 @@
       <c r="AG79">
         <v>0.2331599593162537</v>
       </c>
-      <c r="AH79" t="s">
-        <v>176</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>688381</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>-3.83</v>
@@ -7515,7 +8922,7 @@
         <v>27600.22</v>
       </c>
       <c r="J80" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K80">
         <v>3</v>
@@ -7556,8 +8963,23 @@
       <c r="W80">
         <v>-0.51</v>
       </c>
+      <c r="X80">
+        <v>2.52</v>
+      </c>
+      <c r="Y80">
+        <v>29.3</v>
+      </c>
+      <c r="Z80">
+        <v>5.97</v>
+      </c>
       <c r="AC80" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7565,22 +8987,25 @@
       <c r="AG80">
         <v>4.229586601257324</v>
       </c>
-      <c r="AH80" t="s">
-        <v>176</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>688499</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>-4.19</v>
@@ -7598,7 +9023,7 @@
         <v>50868.76</v>
       </c>
       <c r="J81" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K81">
         <v>48</v>
@@ -7639,8 +9064,23 @@
       <c r="W81">
         <v>-0.75</v>
       </c>
+      <c r="X81">
+        <v>-1.36</v>
+      </c>
+      <c r="Y81">
+        <v>61.53</v>
+      </c>
+      <c r="Z81">
+        <v>-3.86</v>
+      </c>
       <c r="AC81" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7648,22 +9088,25 @@
       <c r="AG81">
         <v>1.094441771507263</v>
       </c>
-      <c r="AH81" t="s">
-        <v>176</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>688502</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>0.07000000000000001</v>
@@ -7681,7 +9124,7 @@
         <v>37422.64</v>
       </c>
       <c r="J82" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K82">
         <v>19</v>
@@ -7722,8 +9165,23 @@
       <c r="W82">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="X82">
+        <v>8.01</v>
+      </c>
+      <c r="Y82">
+        <v>448.88</v>
+      </c>
+      <c r="Z82">
+        <v>8.43</v>
+      </c>
       <c r="AC82" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>1</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -7731,22 +9189,25 @@
       <c r="AG82">
         <v>7.007484436035156</v>
       </c>
-      <c r="AH82" t="s">
-        <v>176</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>688519</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>-1.03</v>
@@ -7764,7 +9225,7 @@
         <v>34815.9</v>
       </c>
       <c r="J83" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K83">
         <v>4</v>
@@ -7805,8 +9266,23 @@
       <c r="W83">
         <v>0.21</v>
       </c>
+      <c r="X83">
+        <v>11.61</v>
+      </c>
+      <c r="Y83">
+        <v>81.42</v>
+      </c>
+      <c r="Z83">
+        <v>24.67</v>
+      </c>
       <c r="AC83" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>1</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -7814,22 +9290,25 @@
       <c r="AG83">
         <v>4.462532520294189</v>
       </c>
-      <c r="AH83" t="s">
-        <v>176</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>688582</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>-3.11</v>
@@ -7847,7 +9326,7 @@
         <v>63817.4</v>
       </c>
       <c r="J84" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K84">
         <v>4</v>
@@ -7888,8 +9367,23 @@
       <c r="W84">
         <v>-0.47</v>
       </c>
+      <c r="X84">
+        <v>1.95</v>
+      </c>
+      <c r="Y84">
+        <v>82.2</v>
+      </c>
+      <c r="Z84">
+        <v>2.2</v>
+      </c>
       <c r="AC84" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -7897,22 +9391,25 @@
       <c r="AG84">
         <v>2.918793916702271</v>
       </c>
-      <c r="AH84" t="s">
-        <v>176</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>688584</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>-3.7</v>
@@ -7930,7 +9427,7 @@
         <v>55019.35</v>
       </c>
       <c r="J85" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K85">
         <v>7</v>
@@ -7971,8 +9468,23 @@
       <c r="W85">
         <v>-0.42</v>
       </c>
+      <c r="X85">
+        <v>-1.17</v>
+      </c>
+      <c r="Y85">
+        <v>28.18</v>
+      </c>
+      <c r="Z85">
+        <v>3.22</v>
+      </c>
       <c r="AC85" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -7980,22 +9492,25 @@
       <c r="AG85">
         <v>4.953540325164795</v>
       </c>
-      <c r="AH85" t="s">
-        <v>176</v>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>688603</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>-3.98</v>
@@ -8013,7 +9528,7 @@
         <v>34360.15</v>
       </c>
       <c r="J86" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K86">
         <v>7</v>
@@ -8054,8 +9569,23 @@
       <c r="W86">
         <v>-0.13</v>
       </c>
+      <c r="X86">
+        <v>1.82</v>
+      </c>
+      <c r="Y86">
+        <v>90.5</v>
+      </c>
+      <c r="Z86">
+        <v>1.48</v>
+      </c>
       <c r="AC86" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -8063,22 +9593,25 @@
       <c r="AG86">
         <v>1.996331334114075</v>
       </c>
-      <c r="AH86" t="s">
-        <v>176</v>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>688716</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>-6.2</v>
@@ -8096,7 +9629,7 @@
         <v>42770.39</v>
       </c>
       <c r="J87" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K87">
         <v>6</v>
@@ -8137,8 +9670,23 @@
       <c r="W87">
         <v>-1.93</v>
       </c>
+      <c r="X87">
+        <v>0.85</v>
+      </c>
+      <c r="Y87">
+        <v>52.67</v>
+      </c>
+      <c r="Z87">
+        <v>-0.25</v>
+      </c>
       <c r="AC87" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -8146,22 +9694,25 @@
       <c r="AG87">
         <v>16.97101593017578</v>
       </c>
-      <c r="AH87" t="s">
-        <v>176</v>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>688798</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>-0.28</v>
@@ -8179,7 +9730,7 @@
         <v>105892.31</v>
       </c>
       <c r="J88" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K88">
         <v>2</v>
@@ -8220,8 +9771,23 @@
       <c r="W88">
         <v>-0.26</v>
       </c>
+      <c r="X88">
+        <v>1.43</v>
+      </c>
+      <c r="Y88">
+        <v>96.55</v>
+      </c>
+      <c r="Z88">
+        <v>2.67</v>
+      </c>
       <c r="AC88" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -8229,8 +9795,11 @@
       <c r="AG88">
         <v>4.200963020324707</v>
       </c>
-      <c r="AH88" t="s">
-        <v>176</v>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
